--- a/rapports/Comparatif méthodes.xlsx
+++ b/rapports/Comparatif méthodes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
   <si>
     <t>Thème</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>Balises ultrasons                                   2 équipes : uart et l'ESEO</t>
+  </si>
+  <si>
+    <t>Possibilité d'utiliser des capteurs industriels</t>
+  </si>
+  <si>
+    <t>A voir</t>
   </si>
 </sst>
 </file>
@@ -724,13 +730,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -740,18 +740,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -791,6 +779,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1091,11 +1097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1109,567 +1115,602 @@
     <col min="7" max="7" width="23.28515625" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="3"/>
-    <col min="11" max="11" width="21.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="3"/>
+    <col min="12" max="12" width="21.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:13" ht="75.75" thickBot="1">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60.75" thickBot="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="1:13" ht="60.75" thickBot="1">
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="11"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="22"/>
+      <c r="B4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60.75" thickBot="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" spans="1:13" ht="60.75" thickBot="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:13" ht="45" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="M6" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="135.75" thickBot="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:13" ht="135.75" thickBot="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>66</v>
       </c>
       <c r="J7"/>
-      <c r="K7" s="8" t="s">
+      <c r="K7"/>
+      <c r="L7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="22"/>
+      <c r="B8" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="M8" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="1:13" ht="69.75" customHeight="1" thickBot="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>105</v>
       </c>
       <c r="J9"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9" t="s">
+      <c r="K9"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="M10" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="90.75" thickBot="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
+    <row r="11" spans="1:13" ht="90.75" thickBot="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J11"/>
-      <c r="K11" s="8" t="s">
+      <c r="K11"/>
+      <c r="L11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="M12" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="75.75" thickBot="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8" t="s">
+    <row r="13" spans="1:13" ht="75.75" thickBot="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8" t="s">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="M13" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="45" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:13" ht="45" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="M14" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+    <row r="15" spans="1:13" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="22"/>
+      <c r="B16" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="M16" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="60.75" thickBot="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8" t="s">
+    <row r="17" spans="1:13" ht="60.75" thickBot="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8" t="s">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="M17" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1688,14 +1729,6 @@
     <mergeCell ref="A2:A9"/>
   </mergeCells>
   <conditionalFormatting sqref="E2 E4 E8 E12 E14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1704,6 +1737,14 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1719,7 +1760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:L2">
+  <conditionalFormatting sqref="C2:M2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2041,7 +2082,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="I21">
-        <f t="shared" ref="I20:I22" si="1">$I$2-$B$18</f>
+        <f t="shared" ref="I21" si="1">$I$2-$B$18</f>
         <v>79</v>
       </c>
       <c r="J21">
@@ -2055,7 +2096,7 @@
         <v>101</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J20:J22" si="2">$J$2-$B$18</f>
+        <f t="shared" ref="J22" si="2">$J$2-$B$18</f>
         <v>34</v>
       </c>
     </row>
@@ -2243,7 +2284,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="I37">
-        <f t="shared" ref="I36:I38" si="4">$I$2-$B$34</f>
+        <f t="shared" ref="I37" si="4">$I$2-$B$34</f>
         <v>89.5</v>
       </c>
       <c r="J37">
@@ -2257,7 +2298,7 @@
         <v>90.5</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J36:J38" si="5">$J$2-$B$34</f>
+        <f t="shared" ref="J38" si="5">$J$2-$B$34</f>
         <v>44.5</v>
       </c>
     </row>
@@ -2445,7 +2486,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="I53">
-        <f t="shared" ref="I52:I54" si="7">$I$2-$B$50</f>
+        <f t="shared" ref="I53" si="7">$I$2-$B$50</f>
         <v>89.9</v>
       </c>
       <c r="J53">
@@ -2459,7 +2500,7 @@
         <v>90.1</v>
       </c>
       <c r="J54">
-        <f t="shared" ref="J52:J54" si="8">$J$2-$B$50</f>
+        <f t="shared" ref="J54" si="8">$J$2-$B$50</f>
         <v>44.9</v>
       </c>
     </row>

--- a/rapports/Comparatif méthodes.xlsx
+++ b/rapports/Comparatif méthodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12585"/>
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="140">
   <si>
     <t>Thème</t>
   </si>
@@ -415,16 +415,37 @@
   </si>
   <si>
     <t>A voir</t>
+  </si>
+  <si>
+    <t>Critère satisfaisant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critère acceptable </t>
+  </si>
+  <si>
+    <t>critère insatisfaisant</t>
+  </si>
+  <si>
+    <t>Hors sujet</t>
+  </si>
+  <si>
+    <t>Système Intéressant</t>
+  </si>
+  <si>
+    <t>Hors Budget</t>
+  </si>
+  <si>
+    <t>Légendes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,7 +482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,8 +504,26 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -704,6 +743,32 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -719,7 +784,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -790,13 +855,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -809,6 +910,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -887,6 +993,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -921,6 +1028,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1096,15 +1204,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="30.5703125" style="2" customWidth="1"/>
@@ -1120,7 +1228,7 @@
     <col min="13" max="13" width="18.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="75.75" thickBot="1">
+    <row r="1" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1158,11 +1266,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1199,9 +1307,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="60.75" thickBot="1">
+    <row r="3" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="5" t="s">
         <v>47</v>
       </c>
@@ -1232,9 +1340,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1271,9 +1379,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="60.75" thickBot="1">
+    <row r="5" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
@@ -1304,9 +1412,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45" customHeight="1">
+    <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -1341,9 +1449,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="135.75" thickBot="1">
+    <row r="7" spans="1:13" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
@@ -1374,9 +1482,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -1413,9 +1521,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="69.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="6" t="s">
         <v>101</v>
       </c>
@@ -1444,11 +1552,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="26" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -1485,9 +1593,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="90.75" thickBot="1">
+    <row r="11" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
-      <c r="B11" s="25"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="6" t="s">
         <v>74</v>
       </c>
@@ -1518,7 +1626,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>112</v>
       </c>
@@ -1559,7 +1667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="75.75" thickBot="1">
+    <row r="13" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="25"/>
       <c r="C13" s="6" t="s">
@@ -1588,7 +1696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="45" customHeight="1">
+    <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="24" t="s">
         <v>87</v>
@@ -1627,7 +1735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="23.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="6"/>
@@ -1644,9 +1752,9 @@
       <c r="L15" s="6"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="30" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1681,9 +1789,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="60.75" thickBot="1">
+    <row r="17" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
-      <c r="B17" s="25"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="6" t="s">
         <v>90</v>
       </c>
@@ -1714,8 +1822,36 @@
         <v>98</v>
       </c>
     </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="38"/>
+      <c r="C21" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
@@ -1731,9 +1867,9 @@
   <conditionalFormatting sqref="E2 E4 E8 E12 E14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -1741,8 +1877,8 @@
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFF7128"/>
         <color rgb="FFFFEF9C"/>
       </colorScale>
@@ -1751,9 +1887,9 @@
   <conditionalFormatting sqref="E2:E17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -1763,9 +1899,9 @@
   <conditionalFormatting sqref="C2:M2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -1773,25 +1909,26 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1808,7 +1945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1834,7 +1971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -1856,7 +1993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>17</v>
       </c>
@@ -1878,7 +2015,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I5">
         <f>$I$2-$B$2</f>
         <v>68</v>
@@ -1888,7 +2025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I6">
         <f>$I$2+$B$2</f>
         <v>112</v>
@@ -1898,7 +2035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1912,7 +2049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -1928,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>49</v>
       </c>
@@ -1945,7 +2082,7 @@
         <v>1675.2916153952092</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -1962,7 +2099,7 @@
         <v>1675.2916153952096</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1979,7 +2116,7 @@
         <v>12589.368289181297</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1996,7 +2133,7 @@
         <v>910.15313100368246</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2013,7 +2150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>11</v>
       </c>
@@ -2036,7 +2173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>16</v>
       </c>
@@ -2058,7 +2195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>17</v>
       </c>
@@ -2080,7 +2217,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I21">
         <f t="shared" ref="I21" si="1">$I$2-$B$18</f>
         <v>79</v>
@@ -2090,7 +2227,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I22">
         <f>$I$2+$B$18</f>
         <v>101</v>
@@ -2100,7 +2237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -2114,7 +2251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -2130,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>115</v>
       </c>
@@ -2147,7 +2284,7 @@
         <v>853.32376876079491</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>116</v>
       </c>
@@ -2164,7 +2301,7 @@
         <v>853.32376876079525</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>117</v>
       </c>
@@ -2181,7 +2318,7 @@
         <v>434.82361160572174</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>118</v>
       </c>
@@ -2198,7 +2335,7 @@
         <v>403.52891515917406</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -2215,7 +2352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.5</v>
       </c>
@@ -2238,7 +2375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>16</v>
       </c>
@@ -2260,7 +2397,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>17</v>
       </c>
@@ -2282,7 +2419,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I37">
         <f t="shared" ref="I37" si="4">$I$2-$B$34</f>
         <v>89.5</v>
@@ -2292,7 +2429,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I38">
         <f>$I$2+$B$34</f>
         <v>90.5</v>
@@ -2302,7 +2439,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>21</v>
       </c>
@@ -2316,7 +2453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>26</v>
       </c>
@@ -2332,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>119</v>
       </c>
@@ -2349,7 +2486,7 @@
         <v>39.026253164857714</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>120</v>
       </c>
@@ -2366,7 +2503,7 @@
         <v>39.026253164858431</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>121</v>
       </c>
@@ -2383,7 +2520,7 @@
         <v>17.455777028934353</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>122</v>
       </c>
@@ -2400,7 +2537,7 @@
         <v>17.455684174707674</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -2417,7 +2554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.1</v>
       </c>
@@ -2440,7 +2577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>16</v>
       </c>
@@ -2462,7 +2599,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>17</v>
       </c>
@@ -2484,7 +2621,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I53">
         <f t="shared" ref="I53" si="7">$I$2-$B$50</f>
         <v>89.9</v>
@@ -2494,7 +2631,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I54">
         <f>$I$2+$B$50</f>
         <v>90.1</v>
@@ -2504,7 +2641,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>21</v>
       </c>
@@ -2518,7 +2655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>26</v>
       </c>
@@ -2534,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>123</v>
       </c>
@@ -2551,7 +2688,7 @@
         <v>7.8053457384140437</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>124</v>
       </c>
@@ -2568,7 +2705,7 @@
         <v>7.8053457384146032</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>125</v>
       </c>
@@ -2585,7 +2722,7 @@
         <v>3.4906780727604163</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>126</v>
       </c>
@@ -2608,14 +2745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rapports/Comparatif méthodes.xlsx
+++ b/rapports/Comparatif méthodes.xlsx
@@ -523,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -774,6 +774,45 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -784,7 +823,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -846,6 +885,30 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,45 +924,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Insatisfaisant" xfId="3" builtinId="27"/>
@@ -1209,12 +1267,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.140625" style="3" customWidth="1"/>
@@ -1267,10 +1325,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1308,8 +1366,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>47</v>
       </c>
@@ -1341,8 +1399,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1380,41 +1438,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -1450,8 +1508,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
@@ -1473,8 +1531,8 @@
       <c r="I7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="6" t="s">
         <v>67</v>
       </c>
@@ -1483,8 +1541,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="37" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -1522,8 +1580,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="6" t="s">
         <v>101</v>
       </c>
@@ -1545,18 +1603,18 @@
       <c r="I9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J9"/>
-      <c r="K9"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
       <c r="L9" s="6"/>
       <c r="M9" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="37" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -1594,8 +1652,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="6" t="s">
         <v>74</v>
       </c>
@@ -1617,8 +1675,8 @@
       <c r="I11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J11"/>
-      <c r="K11"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="6" t="s">
         <v>78</v>
       </c>
@@ -1627,49 +1685,49 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
@@ -1697,8 +1755,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="32" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -1736,8 +1794,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1753,8 +1811,8 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="34" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1790,8 +1848,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="6" t="s">
         <v>90</v>
       </c>
@@ -1824,38 +1882,33 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="22" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="38"/>
-      <c r="C21" s="36" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="24" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1863,6 +1916,11 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="E2 E4 E8 E12 E14">
     <cfRule type="colorScale" priority="3">
@@ -1909,7 +1967,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
